--- a/unis.xlsx
+++ b/unis.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="124">
   <si>
     <t xml:space="preserve">Carnegie Mellon University  </t>
   </si>
@@ -382,6 +382,21 @@
   </si>
   <si>
     <t>Italy</t>
+  </si>
+  <si>
+    <t>Nanyang Technological University</t>
+  </si>
+  <si>
+    <t>MBZUAI</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>HKUST</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
   </si>
 </sst>
 </file>
@@ -741,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,679 +842,686 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
       <c r="B6">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B12">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>46</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>109</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>27</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <v>0.27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B14">
+    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B15">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>32</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>111</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>24</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>42</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <v>0.48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>40</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.11</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B18">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
       <c r="B19">
-        <v>30</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>18</v>
       </c>
-      <c r="D19">
-        <v>43</v>
-      </c>
       <c r="E19" s="1">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E20" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>107</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>112</v>
-      </c>
       <c r="B21">
-        <v>33</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="F21" t="s">
-        <v>106</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B22">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1">
-        <v>0.16</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B23">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>22</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F23" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>112</v>
-      </c>
       <c r="B24">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E24" s="1">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25">
+        <v>35</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26">
         <v>36</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25">
-        <v>25</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>39</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>25</v>
+      <c r="C26" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E26" s="1">
-        <v>0.7</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B27">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" s="1">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
       <c r="B28">
-        <v>42</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="D28">
-        <v>13</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B29">
+        <v>39</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>24</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30">
+        <v>41</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>26</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>42</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B32">
         <v>43</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D29">
+      <c r="D32">
         <v>13</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E32" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>44</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30">
-        <v>29</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31">
-        <v>45</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31">
-        <v>16</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32">
-        <v>46</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32">
-        <v>32</v>
-      </c>
-      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D33">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E33" s="1">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
       <c r="B34">
-        <v>46</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D34">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E34" s="1">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="4">
-        <v>49</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="4">
-        <v>21</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0.35</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B35">
+        <v>46</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35">
+        <v>32</v>
+      </c>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B36">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E36" s="1">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>111</v>
-      </c>
       <c r="B37">
-        <v>52</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E37" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <v>54</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38">
-        <v>35</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.33</v>
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="4">
+        <v>49</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="4">
+        <v>21</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0.35</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B39">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E39" s="1">
-        <v>0.7</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B40">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E40" s="1">
-        <v>0.04</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B41">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E41" s="1">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B42">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D42">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E42" s="1">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>115</v>
+      </c>
       <c r="B43">
-        <v>59</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D43">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E43" s="1">
         <v>0.04</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>116</v>
-      </c>
       <c r="B44">
-        <v>61</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D44">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E44" s="1">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>112</v>
-      </c>
       <c r="B45">
-        <v>62</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D45">
-        <v>17</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B46">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D46">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E46" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>116</v>
+      </c>
       <c r="B47">
-        <v>65</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E47" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
       <c r="B48">
-        <v>66</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D48">
-        <v>20</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0.1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B49">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D49">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E49" s="1">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>112</v>
-      </c>
       <c r="B50">
-        <v>68</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E50" s="1">
         <v>7.0000000000000007E-2</v>
@@ -1507,135 +1529,134 @@
     </row>
     <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B51">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D51">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E51" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>117</v>
-      </c>
       <c r="B52">
-        <v>70</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>51</v>
+        <v>67</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E52" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
       <c r="B53">
-        <v>72</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D53">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E53" s="1">
-        <v>0.8</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B54">
+        <v>69</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54">
+        <v>16</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55">
+        <v>70</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B56">
         <v>72</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54">
-        <v>27</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B55">
-        <v>74</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55">
-        <v>24</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56">
-        <v>76</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>55</v>
+      <c r="C56" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E56" s="1">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B57">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E57" s="1">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>117</v>
-      </c>
       <c r="B58">
-        <v>78</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D58">
-        <v>13</v>
-      </c>
-      <c r="E58" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B59">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D59">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E59" s="1">
         <v>0.3</v>
@@ -1643,44 +1664,45 @@
     </row>
     <row r="60" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B60">
+        <v>76</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61">
         <v>78</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60">
-        <v>20</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B61">
-        <v>81</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>60</v>
+      <c r="C61" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D61">
-        <v>17</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0.15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B62">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E62" s="1">
         <v>0.3</v>
@@ -1688,218 +1710,218 @@
     </row>
     <row r="63" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B63">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D63">
         <v>20</v>
       </c>
       <c r="E63" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B64">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D64">
         <v>17</v>
       </c>
       <c r="E64" s="1">
-        <v>0.8</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>117</v>
+      </c>
       <c r="B65">
-        <v>86</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D65">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E65" s="1">
-        <v>0.46</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>113</v>
-      </c>
       <c r="B66">
-        <v>88</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>65</v>
+        <v>83</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D66">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E66" s="1">
-        <v>0.4</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B67">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D67">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E67" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D68">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E68" s="1">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>113</v>
+      </c>
       <c r="B69">
-        <v>96</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>68</v>
+        <v>88</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D69">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E69" s="1">
-        <v>0.86</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B70" s="4">
-        <v>97</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="4">
-        <v>19</v>
-      </c>
-      <c r="E70" s="6">
-        <v>0.5</v>
+      <c r="B70">
+        <v>90</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70">
+        <v>14</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.4</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B71">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D71">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71" s="1">
-        <v>0.87</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>111</v>
-      </c>
       <c r="B72">
-        <v>98</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>71</v>
+        <v>96</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D72">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E72" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B73">
-        <v>101</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73">
-        <v>18</v>
-      </c>
-      <c r="E73" s="1">
-        <v>0.22</v>
+      <c r="B73" s="4">
+        <v>97</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" s="4">
+        <v>19</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B74">
+        <v>98</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74">
+        <v>18</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75">
+        <v>98</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75">
+        <v>12</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B76">
         <v>101</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74">
-        <v>11</v>
-      </c>
-      <c r="E74" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B75">
-        <v>104</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75">
-        <v>13</v>
-      </c>
-      <c r="E75" s="1">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>117</v>
-      </c>
-      <c r="B76">
-        <v>105</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>75</v>
+      <c r="C76" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D76">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E76" s="1">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B77">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D77">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E77" s="1">
         <v>0.1</v>
@@ -1907,90 +1929,89 @@
     </row>
     <row r="78" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B78">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D78">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E78" s="1">
-        <v>0.5</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>117</v>
+      </c>
       <c r="B79">
-        <v>110</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>78</v>
+        <v>105</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D79">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E79" s="1">
-        <v>0.16</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B80">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D80">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E80" s="1">
-        <v>0.76</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>111</v>
-      </c>
       <c r="B81">
-        <v>115</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>80</v>
+        <v>110</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D81">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E81" s="1">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>113</v>
-      </c>
       <c r="B82">
-        <v>119</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>81</v>
+        <v>110</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D82">
-        <v>22</v>
-      </c>
-      <c r="E82" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="83" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B83">
-        <v>119</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>82</v>
+        <v>112</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D83">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E83" s="1">
-        <v>0.2</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -1998,47 +2019,45 @@
         <v>111</v>
       </c>
       <c r="B84">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D84">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E84" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B85">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D85">
-        <v>13</v>
-      </c>
-      <c r="E85" s="1">
-        <v>0.4</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B86">
-        <v>124</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D86">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E86" s="1">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2046,301 +2065,349 @@
         <v>111</v>
       </c>
       <c r="B87">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D87">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E87" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>112</v>
+      </c>
       <c r="B88">
+        <v>123</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88">
+        <v>13</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>124</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90">
+        <v>124</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D90">
+        <v>13</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B91">
         <v>127</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D88">
+      <c r="D91">
         <v>16</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E91" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="92" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>117</v>
       </c>
-      <c r="B89">
+      <c r="B92">
         <v>127</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D89">
+      <c r="D92">
         <v>10</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E92" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B90">
+    <row r="93" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B93">
         <v>127</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D90">
+      <c r="D93">
         <v>11</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E93" s="1">
         <v>0.13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>111</v>
-      </c>
-      <c r="B91">
-        <v>130</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D91">
-        <v>13</v>
-      </c>
-      <c r="E91" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B92">
-        <v>130</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D92">
-        <v>6</v>
-      </c>
-      <c r="E92" s="1">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>113</v>
-      </c>
-      <c r="B93">
-        <v>130</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D93">
-        <v>17</v>
-      </c>
-      <c r="E93" s="1">
-        <v>0.2</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B94">
         <v>130</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D94">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E94" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>112</v>
-      </c>
       <c r="B95">
-        <v>134</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>94</v>
+        <v>130</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D95">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E95" s="1">
-        <v>0.2</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B96">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E96" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B97">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D97">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E97" s="1">
-        <v>0.67</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B98">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D98">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E98" s="1">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B99">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D99">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E99" s="1">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100">
+        <v>139</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D100">
+        <v>12</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>113</v>
       </c>
-      <c r="B100">
-        <v>142</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D100">
-        <v>17</v>
-      </c>
-      <c r="E100" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B101">
-        <v>142</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>100</v>
+        <v>140</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D101">
-        <v>14</v>
-      </c>
-      <c r="E101" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="102" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102">
+        <v>140</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102">
+        <v>12</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>113</v>
       </c>
-      <c r="B102">
-        <v>145</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D102">
-        <v>18</v>
-      </c>
-      <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B103">
-        <v>145</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>102</v>
+        <v>142</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="D103">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E103" s="1">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B104">
+        <v>142</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D104">
+        <v>14</v>
+      </c>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105">
+        <v>145</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D105">
+        <v>18</v>
+      </c>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>145</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D106">
+        <v>13</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B107">
         <v>148</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D104">
+      <c r="D107">
         <v>10</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E107" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B105">
+    <row r="108" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B108">
         <v>148</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D105">
+      <c r="D108">
         <v>15</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E108" s="1">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B105">
+  <conditionalFormatting sqref="B1:B108">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2352,7 +2419,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D105">
+  <conditionalFormatting sqref="D1:D108">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2364,7 +2431,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E105">
+  <conditionalFormatting sqref="E1:E108">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2386,7 +2453,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/unis.xlsx
+++ b/unis.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$108</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="137">
   <si>
     <t xml:space="preserve">Carnegie Mellon University  </t>
   </si>
@@ -397,13 +401,52 @@
   </si>
   <si>
     <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>no funding</t>
+  </si>
+  <si>
+    <t>https://www.temple.edu/academics/degree-programs/computer-science-ms-st-csci-ms/cst-grad-computer-science-ms-scholarships-financial-aid</t>
+  </si>
+  <si>
+    <t>https://grad.ucdavis.edu/funding-your-graduate-education</t>
+  </si>
+  <si>
+    <t>. 90% of UC Davis graduate students receive some form of financial support.</t>
+  </si>
+  <si>
+    <t>https://cs.vt.edu/Graduate/Funding.html</t>
+  </si>
+  <si>
+    <t>https://www.surrey.ac.uk/fees-and-funding/scholarships-and-bursaries?field_student_level_value[postgraduate]=postgraduate&amp;field_subject_grouping_target_id_ini[644]=644&amp;field_student_type_updated_value_ini[international]=international&amp;field_scholarship_type_value_1[internal_bursary]=internal_bursary&amp;field_scholarship_type_value_1[internal_scholarship]=internal_scholarship&amp;field_scholarship_type_value_1[external_bursary]=external_bursary&amp;field_scholarship_type_value_1[external_scholarship]=external_scholarship</t>
+  </si>
+  <si>
+    <t>https://www.sfu.ca/computing/prospective-students/graduate-students/financial-support.html#:~:text=The%20School%20of%20Computing%20Science,per%20year%20for%20two%20years</t>
+  </si>
+  <si>
+    <t>Students should arrange their own financial resources for both living and educational expenses. MSc - $21,000 per year for two years</t>
+  </si>
+  <si>
+    <t>https://cas.uoregon.edu/computer-science/graduate-programs/funding</t>
+  </si>
+  <si>
+    <t>https://www.cardiff.ac.uk/study/postgraduate/research/programmes/programme/computer-science-and-informatics#:~:text=research%20proposal%20page.-,Funded%20studentships,studentships%202023%20is%2013%20March.</t>
+  </si>
+  <si>
+    <t>https://cse.wustl.edu/academics/graduate/MS-in-Computer-Science.html</t>
+  </si>
+  <si>
+    <t>https://www.cs.arizona.edu/graduate/masters-program/funding-opportunities</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,13 +490,39 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -468,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -476,6 +545,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -756,10 +829,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection sqref="A1:F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +915,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -945,7 +1019,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -962,7 +1036,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -993,7 +1067,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -1039,7 +1113,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -1135,7 +1209,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -1184,7 +1258,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -1213,7 +1287,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -1272,7 +1346,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>113</v>
       </c>
@@ -1289,7 +1363,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -1332,7 +1406,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -1408,7 +1482,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -1454,10 +1528,13 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
       <c r="B46">
         <v>59</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D46">
@@ -1467,7 +1544,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -1586,7 +1663,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -1645,7 +1722,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -1676,7 +1753,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -1736,7 +1813,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -1795,7 +1872,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>113</v>
       </c>
@@ -1941,7 +2018,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>117</v>
       </c>
@@ -2031,7 +2108,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>113</v>
       </c>
@@ -2139,7 +2216,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>117</v>
       </c>
@@ -2201,7 +2278,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -2218,7 +2295,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>118</v>
       </c>
@@ -2252,7 +2329,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -2269,7 +2346,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>117</v>
       </c>
@@ -2286,7 +2363,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -2320,7 +2397,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -2349,7 +2426,7 @@
       </c>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -2407,6 +2484,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F108">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="Canada"/>
+        <filter val="UK"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="B1:B108">
     <cfRule type="colorScale" priority="5">
       <colorScale>
@@ -2450,6 +2535,1279 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>47</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>43</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>44</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>29</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>46</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>36</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>34</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29">
+        <v>52</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>54</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>35</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>57</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>59</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33">
+        <v>33</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34">
+        <v>59</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34">
+        <v>29</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35">
+        <v>62</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>63</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36">
+        <v>24</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>65</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>66</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>67</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39">
+        <v>22</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40">
+        <v>68</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40">
+        <v>25</v>
+      </c>
+      <c r="E40" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>69</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>72</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42">
+        <v>23</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>72</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>27</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>74</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44">
+        <v>24</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>76</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45">
+        <v>16</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46">
+        <v>78</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46">
+        <v>24</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>78</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>81</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48">
+        <v>17</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>83</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+      <c r="E49" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>83</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50">
+        <v>17</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>86</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51">
+        <v>14</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>90</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52">
+        <v>14</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>92</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53">
+        <v>17</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>96</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54">
+        <v>17</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B55" s="4">
+        <v>97</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="4">
+        <v>19</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>98</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56">
+        <v>18</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57">
+        <v>98</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>101</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58">
+        <v>18</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>101</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>104</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60">
+        <v>13</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>107</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61">
+        <v>19</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>110</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62">
+        <v>17</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>110</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63">
+        <v>14</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>112</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64">
+        <v>12</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65">
+        <v>115</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65">
+        <v>18</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>119</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66">
+        <v>13</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67">
+        <v>121</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67">
+        <v>26</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68">
+        <v>123</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68">
+        <v>13</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>124</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70">
+        <v>124</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70">
+        <v>13</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>127</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71">
+        <v>16</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>127</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72">
+        <v>11</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73">
+        <v>130</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73">
+        <v>13</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>130</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="F74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75">
+        <v>134</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75">
+        <v>22</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76">
+        <v>140</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76">
+        <v>12</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F76" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>142</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77">
+        <v>14</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>145</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78">
+        <v>13</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>126</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>148</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>148</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80">
+        <v>15</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B80">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D80">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E80">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
